--- a/templates/() pcs., LI, 40_2023, Add. № VP-CH_ _, (), Отгрузочная таблица.xlsx
+++ b/templates/() pcs., LI, 40_2023, Add. № VP-CH_ _, (), Отгрузочная таблица.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\CursorProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBCA2A4-2458-45AD-B3B4-BD1385F122A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B59D65-49BB-4218-A45D-4D8C00BCE991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="771" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,7 +921,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1163,6 +1163,24 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="145" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1246,34 +1264,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="165">
     <cellStyle name="Гиперссылка 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1442,7 +1432,140 @@
     <cellStyle name="Финансовый 4" xfId="148" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
     <cellStyle name="Финансовый 5" xfId="152" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3583,7 +3706,7 @@
     <row r="5" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H5" s="60">
         <f ca="1">TODAY()</f>
-        <v>46054</v>
+        <v>46056</v>
       </c>
     </row>
     <row r="6" spans="8:12" x14ac:dyDescent="0.25">
@@ -3592,18 +3715,18 @@
       </c>
     </row>
     <row r="7" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
     </row>
     <row r="8" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
     </row>
     <row r="9" spans="8:12" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
@@ -3638,31 +3761,31 @@
       <c r="L21" s="56"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="102" t="e">
+      <c r="C22" s="108" t="e">
         <f ca="1">TOTAL!M181</f>
         <v>#REF!</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="54" t="e">
@@ -3701,35 +3824,35 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="104" t="s">
+      <c r="E35" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="O37" s="92"/>
+      <c r="O37" s="98"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O38" s="92"/>
+      <c r="O38" s="98"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K39" s="58">
@@ -3739,93 +3862,93 @@
       <c r="L39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O39" s="92"/>
+      <c r="O39" s="98"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="O40" s="92"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="O40" s="98"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="O41" s="92"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="109"/>
+      <c r="O41" s="98"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="O42" s="92"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="O42" s="98"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="O43" s="92"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="O43" s="98"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="O44" s="92"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="O44" s="98"/>
     </row>
     <row r="45" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="O45" s="92"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109"/>
+      <c r="O45" s="98"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
@@ -3843,82 +3966,82 @@
         <f ca="1">TOTAL!M173</f>
         <v>#REF!</v>
       </c>
-      <c r="O46" s="92"/>
+      <c r="O46" s="98"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O47" s="92"/>
+      <c r="O47" s="98"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O48" s="92"/>
+      <c r="O48" s="98"/>
     </row>
     <row r="49" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
       <c r="H49" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="107" t="s">
+      <c r="I49" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107" t="s">
+      <c r="J49" s="113"/>
+      <c r="K49" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="L49" s="108"/>
-      <c r="O49" s="92"/>
+      <c r="L49" s="114"/>
+      <c r="O49" s="98"/>
     </row>
     <row r="50" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="94">
+      <c r="B50" s="100">
         <v>1</v>
       </c>
-      <c r="C50" s="110" t="e">
+      <c r="C50" s="116" t="e">
         <f ca="1">IF(TOTAL!Q82="сосна","Sawn timber Pinus sylvestris (Pine) /Пиломатериалы обрезные (доска) сосна;","Sawn timber, Picea abies (spruce)/Пиломатериалы обрезные (доска) Ель; ")</f>
         <v>#REF!</v>
       </c>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="96" t="e">
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="102" t="e">
         <f ca="1">IF(TOTAL!Q82="сосна",4407119401,4407129201)</f>
         <v>#REF!</v>
       </c>
-      <c r="I50" s="98" t="e">
+      <c r="I50" s="104" t="e">
         <f ca="1">CONCATENATE(TOTAL!P81&amp;" "&amp;"packages")</f>
         <v>#REF!</v>
       </c>
-      <c r="J50" s="99"/>
-      <c r="K50" s="105" t="e">
+      <c r="J50" s="105"/>
+      <c r="K50" s="111" t="e">
         <f ca="1">CONCATENATE(TOTAL!N81&amp;" "&amp;"m3")</f>
         <v>#REF!</v>
       </c>
-      <c r="L50" s="105"/>
-      <c r="O50" s="92"/>
+      <c r="L50" s="111"/>
+      <c r="O50" s="98"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="95"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="106" t="e">
+      <c r="B51" s="101"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="112" t="e">
         <f ca="1">CONCATENATE(TOTAL!T81&amp;" "&amp;"kg")</f>
         <v>#REF!</v>
       </c>
-      <c r="L51" s="106"/>
-      <c r="O51" s="92"/>
+      <c r="L51" s="112"/>
+      <c r="O51" s="98"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C52" s="11"/>
@@ -3926,195 +4049,195 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="O52" s="92"/>
+      <c r="O52" s="98"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O53" s="92"/>
+      <c r="O53" s="98"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O54" s="92"/>
+      <c r="O54" s="98"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E55" s="57" t="e">
         <f ca="1">C34</f>
         <v>#REF!</v>
       </c>
-      <c r="O55" s="92"/>
+      <c r="O55" s="98"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O56" s="92"/>
+      <c r="O56" s="98"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O57" s="92"/>
+      <c r="O57" s="98"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O58" s="92"/>
+      <c r="O58" s="98"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="63" t="e">
         <f ca="1">C21</f>
         <v>#REF!</v>
       </c>
-      <c r="O59" s="92"/>
+      <c r="O59" s="98"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O60" s="92"/>
+      <c r="O60" s="98"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O61" s="92"/>
+      <c r="O61" s="98"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O62" s="92"/>
+      <c r="O62" s="98"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O63" s="92"/>
+      <c r="O63" s="98"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O64" s="92"/>
+      <c r="O64" s="98"/>
     </row>
     <row r="65" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O65" s="92"/>
+      <c r="O65" s="98"/>
     </row>
     <row r="66" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O66" s="92"/>
+      <c r="O66" s="98"/>
     </row>
     <row r="67" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O67" s="92"/>
+      <c r="O67" s="98"/>
     </row>
     <row r="68" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O68" s="92"/>
+      <c r="O68" s="98"/>
     </row>
     <row r="69" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O69" s="92"/>
+      <c r="O69" s="98"/>
     </row>
     <row r="70" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O70" s="92"/>
+      <c r="O70" s="98"/>
     </row>
     <row r="71" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O71" s="92"/>
+      <c r="O71" s="98"/>
     </row>
     <row r="72" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O72" s="92"/>
+      <c r="O72" s="98"/>
     </row>
     <row r="73" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O73" s="92"/>
+      <c r="O73" s="98"/>
     </row>
     <row r="74" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O74" s="92"/>
+      <c r="O74" s="98"/>
     </row>
     <row r="75" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O75" s="92"/>
+      <c r="O75" s="98"/>
     </row>
     <row r="76" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O76" s="92"/>
+      <c r="O76" s="98"/>
     </row>
     <row r="77" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O77" s="92"/>
+      <c r="O77" s="98"/>
     </row>
     <row r="78" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O78" s="92"/>
+      <c r="O78" s="98"/>
     </row>
     <row r="79" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O79" s="92"/>
+      <c r="O79" s="98"/>
     </row>
     <row r="80" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O80" s="92"/>
+      <c r="O80" s="98"/>
     </row>
     <row r="81" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O81" s="92"/>
+      <c r="O81" s="98"/>
     </row>
     <row r="82" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O82" s="92"/>
+      <c r="O82" s="98"/>
     </row>
     <row r="83" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O83" s="92"/>
+      <c r="O83" s="98"/>
     </row>
     <row r="84" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O84" s="92"/>
+      <c r="O84" s="98"/>
     </row>
     <row r="85" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O85" s="92"/>
+      <c r="O85" s="98"/>
     </row>
     <row r="86" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O86" s="92"/>
+      <c r="O86" s="98"/>
     </row>
     <row r="87" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O87" s="92"/>
+      <c r="O87" s="98"/>
     </row>
     <row r="88" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O88" s="92"/>
+      <c r="O88" s="98"/>
     </row>
     <row r="89" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O89" s="92"/>
+      <c r="O89" s="98"/>
     </row>
     <row r="90" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O90" s="92"/>
+      <c r="O90" s="98"/>
     </row>
     <row r="91" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O91" s="92"/>
+      <c r="O91" s="98"/>
     </row>
     <row r="92" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O92" s="92"/>
+      <c r="O92" s="98"/>
     </row>
     <row r="93" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O93" s="92"/>
+      <c r="O93" s="98"/>
     </row>
     <row r="94" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O94" s="92"/>
+      <c r="O94" s="98"/>
     </row>
     <row r="95" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O95" s="92"/>
+      <c r="O95" s="98"/>
     </row>
     <row r="96" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O96" s="92"/>
+      <c r="O96" s="98"/>
     </row>
     <row r="97" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O97" s="92"/>
+      <c r="O97" s="98"/>
     </row>
     <row r="98" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O98" s="92"/>
+      <c r="O98" s="98"/>
     </row>
     <row r="99" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O99" s="92"/>
+      <c r="O99" s="98"/>
     </row>
     <row r="100" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O100" s="92"/>
+      <c r="O100" s="98"/>
     </row>
     <row r="101" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O101" s="92"/>
+      <c r="O101" s="98"/>
     </row>
     <row r="102" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O102" s="92"/>
+      <c r="O102" s="98"/>
     </row>
     <row r="103" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O103" s="92"/>
+      <c r="O103" s="98"/>
     </row>
     <row r="104" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O104" s="92"/>
+      <c r="O104" s="98"/>
     </row>
     <row r="105" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O105" s="92"/>
+      <c r="O105" s="98"/>
     </row>
     <row r="106" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O106" s="92"/>
+      <c r="O106" s="98"/>
     </row>
     <row r="107" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O107" s="92"/>
+      <c r="O107" s="98"/>
     </row>
     <row r="108" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O108" s="92"/>
+      <c r="O108" s="98"/>
     </row>
     <row r="109" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O109" s="92"/>
+      <c r="O109" s="98"/>
     </row>
     <row r="110" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O110" s="92"/>
+      <c r="O110" s="98"/>
     </row>
     <row r="111" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O111" s="92"/>
+      <c r="O111" s="98"/>
     </row>
     <row r="112" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O112" s="92"/>
+      <c r="O112" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6207,10 +6330,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="36" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="51" t="s">
         <v>32</v>
       </c>
@@ -7917,11 +8040,11 @@
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="112" t="s">
+      <c r="A107" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B107" s="112"/>
-      <c r="C107" s="112"/>
+      <c r="B107" s="118"/>
+      <c r="C107" s="118"/>
       <c r="D107" s="81"/>
       <c r="E107" s="82" t="e">
         <f ca="1">SUM(E2:E106)</f>
@@ -7942,14 +8065,14 @@
       <c r="E108" s="47"/>
       <c r="F108" s="47"/>
       <c r="G108" s="47"/>
-      <c r="J108" s="113" t="e">
+      <c r="J108" s="119" t="e">
         <f ca="1">"Контракт " &amp;INDIRECT(CONCATENATE(H2,"!S23"))&amp;" инфо на " &amp; COUNTA(H2:H106) &amp; " ктк"</f>
         <v>#REF!</v>
       </c>
-      <c r="K108" s="114"/>
-      <c r="L108" s="114"/>
-      <c r="M108" s="114"/>
-      <c r="N108" s="115"/>
+      <c r="K108" s="120"/>
+      <c r="L108" s="120"/>
+      <c r="M108" s="120"/>
+      <c r="N108" s="121"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="46"/>
@@ -8491,17 +8614,17 @@
     <mergeCell ref="J108:N108"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:F106">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N110:N131">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O110:O131">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8515,9 +8638,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:X183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8612,7 +8733,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="122" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2"/>
@@ -8646,7 +8767,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="2">
         <f>B4+1</f>
         <v>1</v>
@@ -8675,7 +8796,7 @@
       <c r="X5" s="84"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="2">
         <f t="shared" ref="B6:B69" si="0">B5+1</f>
         <v>2</v>
@@ -8704,7 +8825,7 @@
       <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8733,7 +8854,7 @@
       <c r="X7" s="84"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8762,7 +8883,7 @@
       <c r="X8" s="84"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8791,7 +8912,7 @@
       <c r="X9" s="84"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8820,7 +8941,7 @@
       <c r="X10" s="84"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8849,7 +8970,7 @@
       <c r="X11" s="84"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8878,7 +8999,7 @@
       <c r="X12" s="84"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -16897,28 +17018,27 @@
       </c>
       <c r="U157" s="65"/>
     </row>
-    <row r="158" spans="1:22" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="120"/>
-      <c r="B158" s="121"/>
-      <c r="C158" s="122"/>
-      <c r="D158" s="120"/>
-      <c r="E158" s="122"/>
-      <c r="F158" s="121"/>
-      <c r="G158" s="122"/>
-      <c r="H158" s="120"/>
-      <c r="I158" s="120"/>
-      <c r="J158" s="123"/>
-      <c r="K158" s="124"/>
-      <c r="L158" s="121"/>
-      <c r="M158" s="125"/>
-      <c r="N158" s="126"/>
-      <c r="O158" s="120"/>
-      <c r="P158" s="125"/>
-      <c r="Q158" s="127"/>
-      <c r="R158" s="120"/>
-      <c r="S158" s="120"/>
-      <c r="T158" s="120"/>
-      <c r="U158" s="128"/>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A158" s="92"/>
+      <c r="B158" s="93"/>
+      <c r="C158" s="94"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="94"/>
+      <c r="F158" s="93"/>
+      <c r="G158" s="94"/>
+      <c r="H158" s="92"/>
+      <c r="I158" s="92"/>
+      <c r="J158" s="95"/>
+      <c r="K158" s="96"/>
+      <c r="L158" s="93"/>
+      <c r="M158" s="13"/>
+      <c r="N158" s="97"/>
+      <c r="O158" s="92"/>
+      <c r="P158" s="13"/>
+      <c r="R158" s="92"/>
+      <c r="S158" s="92"/>
+      <c r="T158" s="92"/>
+      <c r="U158" s="65"/>
     </row>
     <row r="159" spans="1:22" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A159" s="8"/>
@@ -17162,13 +17282,13 @@
       <c r="L171" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M171" s="118">
+      <c r="M171" s="124">
         <f>COUNTA(A82:A177)</f>
         <v>76</v>
       </c>
-      <c r="N171" s="118"/>
-      <c r="O171" s="118"/>
-      <c r="P171" s="118"/>
+      <c r="N171" s="124"/>
+      <c r="O171" s="124"/>
+      <c r="P171" s="124"/>
       <c r="Q171" s="13"/>
       <c r="R171" s="10"/>
       <c r="S171" s="10"/>
@@ -17177,12 +17297,12 @@
       <c r="L172" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M172" s="118" t="s">
+      <c r="M172" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="N172" s="118"/>
-      <c r="O172" s="118"/>
-      <c r="P172" s="118"/>
+      <c r="N172" s="124"/>
+      <c r="O172" s="124"/>
+      <c r="P172" s="124"/>
       <c r="Q172" s="13"/>
       <c r="R172" s="10"/>
       <c r="S172" s="10"/>
@@ -17191,13 +17311,13 @@
       <c r="L173" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M173" s="119" t="e">
+      <c r="M173" s="125" t="e">
         <f ca="1">INDIRECT(CONCATENATE(B4,"!S25"))</f>
         <v>#REF!</v>
       </c>
-      <c r="N173" s="119"/>
-      <c r="O173" s="119"/>
-      <c r="P173" s="119"/>
+      <c r="N173" s="125"/>
+      <c r="O173" s="125"/>
+      <c r="P173" s="125"/>
       <c r="Q173" s="13"/>
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
@@ -17335,63 +17455,68 @@
     <mergeCell ref="M173:P173"/>
   </mergeCells>
   <conditionalFormatting sqref="B82:B158">
-    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B158">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>AND((B83-B82)&gt;1,ROW(B82)&lt;&gt;ROW(B$82))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D158">
-    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D158">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="30" priority="5">
       <formula>AND((D83-D82)&gt;1,ROW(D82)&lt;&gt;ROW(D$82))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82:F158">
-    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82:I158">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J80 J82:J158">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82:J158">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82:K159">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>SUMPRODUCT(--($K82=$K$82:$K$201))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L82:L158">
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82:M158">
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O80 O82:O158">
-    <cfRule type="duplicateValues" priority="7"/>
+    <cfRule type="duplicateValues" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O82:O158">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P82:P158">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>P82&gt;12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82:Q158">
-    <cfRule type="uniqueValues" dxfId="0" priority="10"/>
+    <cfRule type="uniqueValues" dxfId="18" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:J157">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>AND(LEN(J82)&lt;&gt;0,LEN(J82)&lt;&gt;36,J82&lt;&gt;0)</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
